--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>0.2238191497017885</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.825796744775104</v>
+        <v>-1.817252181975123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03880519454714673</v>
+        <v>0.03991487802766372</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07069301964525691</v>
+        <v>-0.07304460421248014</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2485357310162332</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.852065549890491</v>
+        <v>-1.848144668259331</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01138578145408875</v>
+        <v>0.01395143262180887</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06335494250175311</v>
+        <v>-0.06312828374828582</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2920724764613386</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.951787531320496</v>
+        <v>-1.94818617557096</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01101723269938394</v>
+        <v>-0.01294225808473468</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05575715220323469</v>
+        <v>-0.05886741398692485</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3423208893746185</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.011157171547276</v>
+        <v>-2.003228050223724</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03380273349933269</v>
+        <v>-0.03484001210026985</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05493866226015833</v>
+        <v>-0.05708405032249117</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3884169172963587</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.987608271473496</v>
+        <v>-1.974477016954045</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02653076515892352</v>
+        <v>-0.02506220531874997</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06466137837243267</v>
+        <v>-0.06876012416429968</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.420033830805963</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.869045281161522</v>
+        <v>-1.853445177650311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01421271979594479</v>
+        <v>0.01578673891724547</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06503442090418095</v>
+        <v>-0.06610160586842281</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4329304255511901</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.61114933122245</v>
+        <v>-1.592085598634817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05646254104989785</v>
+        <v>0.05646726310726175</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06304013867749297</v>
+        <v>-0.06343993953430335</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4248930060338489</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.224521440438241</v>
+        <v>-1.200340571687259</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05927216518141958</v>
+        <v>0.05653651994859898</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05010170150040132</v>
+        <v>-0.04990494911023873</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4036815252773112</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7224864676802653</v>
+        <v>-0.6972691073379069</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05694576492013716</v>
+        <v>0.05316497099077291</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01585576747826225</v>
+        <v>-0.01724090430500686</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3810328805367184</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2128914810826824</v>
+        <v>-0.1883289126947851</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.03482112387081424</v>
+        <v>-0.0395368851582311</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02326490376254504</v>
+        <v>0.02172551306191297</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3709040584958235</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3662090418732963</v>
+        <v>0.3925518258873846</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.22772503728182</v>
+        <v>-0.2286899110031773</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08691351497058096</v>
+        <v>0.08450841375323351</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3878958271595034</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9337137659626528</v>
+        <v>0.9639884497417502</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5271695829563054</v>
+        <v>-0.5231794444838083</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1800450783397</v>
+        <v>0.1770371277988944</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4396543042507031</v>
       </c>
       <c r="E14" t="n">
-        <v>1.511218233529632</v>
+        <v>1.544929001050529</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8472865087603935</v>
+        <v>-0.8405237356057251</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2977943007659619</v>
+        <v>0.2908859308425732</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5310944586217572</v>
       </c>
       <c r="E15" t="n">
-        <v>2.171516106877029</v>
+        <v>2.211999878676882</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.188038038235173</v>
+        <v>-1.180319048464314</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4168562551393885</v>
+        <v>0.4108529462107477</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6599472549227196</v>
       </c>
       <c r="E16" t="n">
-        <v>2.697268399754763</v>
+        <v>2.742779588628051</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.538248635619409</v>
+        <v>-1.530232943244185</v>
       </c>
       <c r="G16" t="n">
-        <v>0.53459288541268</v>
+        <v>0.5314007746346822</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8148498957882246</v>
       </c>
       <c r="E17" t="n">
-        <v>3.195152684089869</v>
+        <v>3.240803960664953</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.879574682073463</v>
+        <v>-1.871540101468784</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6675156521682805</v>
+        <v>0.6606954273156845</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9840038378535606</v>
       </c>
       <c r="E18" t="n">
-        <v>3.623007283699185</v>
+        <v>3.664059276401829</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.207749011759489</v>
+        <v>-2.194592572934098</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8146628297230752</v>
+        <v>0.8100021591049039</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.155454469784423</v>
       </c>
       <c r="E19" t="n">
-        <v>3.981660132640517</v>
+        <v>4.019488534182737</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.569837944442621</v>
+        <v>-2.55426223822779</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9598110029938182</v>
+        <v>0.9547127550599253</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.320478582427287</v>
       </c>
       <c r="E20" t="n">
-        <v>4.286446899212698</v>
+        <v>4.326297915325789</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.905761957272371</v>
+        <v>-2.886200047632846</v>
       </c>
       <c r="G20" t="n">
-        <v>1.093467262659945</v>
+        <v>1.08482117562664</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.46777338961676</v>
       </c>
       <c r="E21" t="n">
-        <v>4.528104480886871</v>
+        <v>4.560851948705531</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.187002184799453</v>
+        <v>-3.165032025904338</v>
       </c>
       <c r="G21" t="n">
-        <v>1.21165563642105</v>
+        <v>1.200281774250531</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.588548188398571</v>
       </c>
       <c r="E22" t="n">
-        <v>4.696862940977124</v>
+        <v>4.729331807411315</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.423271899021414</v>
+        <v>-3.39584461583275</v>
       </c>
       <c r="G22" t="n">
-        <v>1.307921071860678</v>
+        <v>1.293351950873919</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.677332759319774</v>
       </c>
       <c r="E23" t="n">
-        <v>4.814909653017311</v>
+        <v>4.845787186119868</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.563250206488245</v>
+        <v>-3.535792229926715</v>
       </c>
       <c r="G23" t="n">
-        <v>1.390376063530015</v>
+        <v>1.37426282978526</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.731259433383073</v>
       </c>
       <c r="E24" t="n">
-        <v>4.884168068373663</v>
+        <v>4.915190411235379</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.683250276257967</v>
+        <v>-3.654533084399397</v>
       </c>
       <c r="G24" t="n">
-        <v>1.45487149702531</v>
+        <v>1.437861072381414</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.754455303213745</v>
       </c>
       <c r="E25" t="n">
-        <v>4.889648802954032</v>
+        <v>4.917239784131312</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.784029211527925</v>
+        <v>-3.755550483566232</v>
       </c>
       <c r="G25" t="n">
-        <v>1.494593443570455</v>
+        <v>1.477430339071792</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.751807292848383</v>
       </c>
       <c r="E26" t="n">
-        <v>4.889746392139553</v>
+        <v>4.913935917995702</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.797389485829526</v>
+        <v>-3.770357281440308</v>
       </c>
       <c r="G26" t="n">
-        <v>1.523977232526896</v>
+        <v>1.505485655889856</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.731136804225234</v>
       </c>
       <c r="E27" t="n">
-        <v>4.861390437669321</v>
+        <v>4.881545752517576</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.735546274553621</v>
+        <v>-3.713296727264476</v>
       </c>
       <c r="G27" t="n">
-        <v>1.517145989540451</v>
+        <v>1.49942883031109</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.697625871057897</v>
       </c>
       <c r="E28" t="n">
-        <v>4.712392213627877</v>
+        <v>4.73203754628083</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.659894980536107</v>
+        <v>-3.639595642938253</v>
       </c>
       <c r="G28" t="n">
-        <v>1.47413591705091</v>
+        <v>1.455118618027355</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.65566780590165</v>
       </c>
       <c r="E29" t="n">
-        <v>4.590232589623731</v>
+        <v>4.60806937430631</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.567756623232529</v>
+        <v>-3.548326931199193</v>
       </c>
       <c r="G29" t="n">
-        <v>1.425772605529825</v>
+        <v>1.407932672809003</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.60959274095977</v>
       </c>
       <c r="E30" t="n">
-        <v>4.453994938598671</v>
+        <v>4.46729382615454</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.455397629287161</v>
+        <v>-3.431356061228414</v>
       </c>
       <c r="G30" t="n">
-        <v>1.371517740437711</v>
+        <v>1.354173623740099</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.562139999096101</v>
       </c>
       <c r="E31" t="n">
-        <v>4.306627398366894</v>
+        <v>4.317601459680602</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.337743635017738</v>
+        <v>-3.312554607019563</v>
       </c>
       <c r="G31" t="n">
-        <v>1.293547129244961</v>
+        <v>1.280071951547505</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.515833732382683</v>
       </c>
       <c r="E32" t="n">
-        <v>4.162440950779265</v>
+        <v>4.17545494087418</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.203756831336138</v>
+        <v>-3.177081142277895</v>
       </c>
       <c r="G32" t="n">
-        <v>1.227894791695509</v>
+        <v>1.213207619274652</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.471540668112607</v>
       </c>
       <c r="E33" t="n">
-        <v>3.961652775589664</v>
+        <v>3.973517731726029</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.090964195122853</v>
+        <v>-3.060994084043727</v>
       </c>
       <c r="G33" t="n">
-        <v>1.154408560979344</v>
+        <v>1.140857830364066</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.429048026185624</v>
       </c>
       <c r="E34" t="n">
-        <v>3.702529877745539</v>
+        <v>3.715441556597568</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.008428141468769</v>
+        <v>-2.979766040279444</v>
       </c>
       <c r="G34" t="n">
-        <v>1.094002429161187</v>
+        <v>1.080909738110208</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.387596532689322</v>
       </c>
       <c r="E35" t="n">
-        <v>3.462076420699161</v>
+        <v>3.474829123619939</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.926681458404018</v>
+        <v>-2.894791043996905</v>
       </c>
       <c r="G35" t="n">
-        <v>1.006099757313029</v>
+        <v>0.9904949317444538</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.344958018228929</v>
       </c>
       <c r="E36" t="n">
-        <v>3.212825770783833</v>
+        <v>3.222343864410338</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.84677873873987</v>
+        <v>-2.819608807677538</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9322452061224792</v>
+        <v>0.9172432298773624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.300827897824146</v>
       </c>
       <c r="E37" t="n">
-        <v>2.957538757538317</v>
+        <v>2.969580003816267</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.746680566739874</v>
+        <v>-2.720106401914955</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8695205441386469</v>
+        <v>0.8576477179066757</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.254164166135037</v>
       </c>
       <c r="E38" t="n">
-        <v>2.683808962248521</v>
+        <v>2.691498045656075</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.646581607730317</v>
+        <v>-2.62387008582907</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8065660753631045</v>
+        <v>0.7934466259870633</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.203934089506319</v>
       </c>
       <c r="E39" t="n">
-        <v>2.43283633541449</v>
+        <v>2.439104079555509</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.543652562340662</v>
+        <v>-2.517296399164043</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7369267473793982</v>
+        <v>0.7238482225005107</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.149149039243687</v>
       </c>
       <c r="E40" t="n">
-        <v>2.20006566569918</v>
+        <v>2.205481865495576</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.452035992375795</v>
+        <v>-2.424078264743252</v>
       </c>
       <c r="G40" t="n">
-        <v>0.675653331025405</v>
+        <v>0.66544581702377</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.089053807503222</v>
       </c>
       <c r="E41" t="n">
-        <v>1.997295800435862</v>
+        <v>2.003322719651322</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.3514058019128</v>
+        <v>-2.325289676652179</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6098042410857908</v>
+        <v>0.5999792137306319</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.024959009937918</v>
       </c>
       <c r="E42" t="n">
-        <v>1.757793050938749</v>
+        <v>1.759141985325704</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.251354850486443</v>
+        <v>-2.226019438709987</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5372624218424059</v>
+        <v>0.5283503255776014</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9579147977690272</v>
       </c>
       <c r="E43" t="n">
-        <v>1.540520173491766</v>
+        <v>1.541974567159848</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.170686370519783</v>
+        <v>-2.145009396594004</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4825589613007218</v>
+        <v>0.474100182542852</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8906691540066981</v>
       </c>
       <c r="E44" t="n">
-        <v>1.321005892816051</v>
+        <v>1.318692084707739</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.081975439852836</v>
+        <v>-2.056338603414651</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4249656016523297</v>
+        <v>0.420114474720481</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8253756176851286</v>
       </c>
       <c r="E45" t="n">
-        <v>1.108577846224431</v>
+        <v>1.106918830070581</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.999483458734149</v>
+        <v>-1.975171159386539</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3633695113784698</v>
+        <v>0.3594124273075199</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7630045589712735</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9135600251335187</v>
+        <v>0.91022153057724</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.931695964246653</v>
+        <v>-1.907689024608575</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2956819671051764</v>
+        <v>0.2911786983991351</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7047082793140529</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7565217114204704</v>
+        <v>0.7518704849170269</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.877079074756641</v>
+        <v>-1.855555150282414</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2529741062869248</v>
+        <v>0.2501156875626427</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6497721647817403</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5935981402128788</v>
+        <v>0.5898204943217572</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.81416316944957</v>
+        <v>-1.791304476760481</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2034035220998023</v>
+        <v>0.202402445938655</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5984927140031593</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4696189501045089</v>
+        <v>0.4644970918837965</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.764652397989057</v>
+        <v>-1.742275355151086</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1572359672529318</v>
+        <v>0.153415822845535</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5500183022054126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3568546462354063</v>
+        <v>0.3564139208814421</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.708203350241851</v>
+        <v>-1.683429076282138</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1173125462602611</v>
+        <v>0.1159573157968212</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5044245956612746</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2293118768364116</v>
+        <v>0.2276402685295902</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.650061444929685</v>
+        <v>-1.627888237567922</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08134463531941911</v>
+        <v>0.07958488194180495</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.462054816255706</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1219779389357964</v>
+        <v>0.1205046570382589</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.612449471016645</v>
+        <v>-1.587833385978623</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04803052061709006</v>
+        <v>0.04736471052877987</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4230772328383459</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03802290704386029</v>
+        <v>0.03366287407785738</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.583603209590127</v>
+        <v>-1.562995364244498</v>
       </c>
       <c r="G53" t="n">
-        <v>0.008225151058516969</v>
+        <v>0.007740353169156357</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3882716428109729</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.05065260819285656</v>
+        <v>-0.05625296822644441</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.567147626686489</v>
+        <v>-1.546033734193362</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01125490958670034</v>
+        <v>-0.01226385584345408</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3571100698273216</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1233030347556111</v>
+        <v>-0.1286688659401251</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.556417538336583</v>
+        <v>-1.534406454944314</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04079767447439295</v>
+        <v>-0.04188846972545433</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3298435511733636</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.184475713885841</v>
+        <v>-0.1929643990070156</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.560785441398192</v>
+        <v>-1.539282766182103</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07460917921905302</v>
+        <v>-0.0745540885498075</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3058315393769607</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2437154975351137</v>
+        <v>-0.2506285895158664</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.559336556797035</v>
+        <v>-1.536977615178958</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0978841999657263</v>
+        <v>-0.1019829457575933</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2848596516953292</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3226840368507692</v>
+        <v>-0.3318054776587067</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.558311870349068</v>
+        <v>-1.536045795859148</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1209797825325713</v>
+        <v>-0.1238791257540072</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2667406714120645</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3941744113211252</v>
+        <v>-0.404402387571337</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.57220731115191</v>
+        <v>-1.552413233691994</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1456241999147762</v>
+        <v>-0.1480843918013691</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2503595685146182</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4722803881583079</v>
+        <v>-0.4784741534006261</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.584923024623338</v>
+        <v>-1.565933270934406</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1728893591339467</v>
+        <v>-0.1775122532932068</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2350666538627498</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5411531688299408</v>
+        <v>-0.5486407777899681</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.610792815891475</v>
+        <v>-1.59307014759519</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1966759360950427</v>
+        <v>-0.2006188539939009</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2198605512432309</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5943502930725402</v>
+        <v>-0.6025477846562741</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.646161025547102</v>
+        <v>-1.625660213501721</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2121800244398545</v>
+        <v>-0.2149424279977371</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2033411082243512</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6444702099329966</v>
+        <v>-0.6536026688747832</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.688365200246537</v>
+        <v>-1.668981154767719</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2435565216038623</v>
+        <v>-0.2471830616593391</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1851838466812065</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6970928171963212</v>
+        <v>-0.7075978208118821</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.726629605085357</v>
+        <v>-1.708628335404602</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2689737823746259</v>
+        <v>-0.2708925116834914</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1654924678412672</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7660679091108387</v>
+        <v>-0.7794297574315602</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.77148127994682</v>
+        <v>-1.753387930147469</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2887009640218874</v>
+        <v>-0.2935269066477953</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1447546267336088</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8274137303444117</v>
+        <v>-0.8463224220485969</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.810554730613988</v>
+        <v>-1.792445640623424</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3132273299699947</v>
+        <v>-0.3162211143387086</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1234662326620586</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.8811475951073745</v>
+        <v>-0.8996533379165067</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.844867560448783</v>
+        <v>-1.825022327367424</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3352163770945653</v>
+        <v>-0.3388901377236811</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1025769854571384</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9060139491856828</v>
+        <v>-0.9313068624458636</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.880879543925021</v>
+        <v>-1.859941154563919</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3562610127463555</v>
+        <v>-0.3614599979040117</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.0824951007014407</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9222436603454142</v>
+        <v>-0.9502486085515961</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.930629566291972</v>
+        <v>-1.904806995597474</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3763643849636079</v>
+        <v>-0.3809321884536225</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06281895481836329</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9200077661836066</v>
+        <v>-0.9479206342711923</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.958093838929987</v>
+        <v>-1.934064863024211</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3931245405672176</v>
+        <v>-0.4004626177107214</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.0442039951888966</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9359683200735955</v>
+        <v>-0.9592850523269832</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.985711578432329</v>
+        <v>-1.960897166985024</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4019894162583831</v>
+        <v>-0.4095856325377802</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.02619578437825485</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9285901054424985</v>
+        <v>-0.9559756771244486</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.026812365727733</v>
+        <v>-2.002949448839253</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4078557855234707</v>
+        <v>-0.4150978475005752</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.009202287042950433</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8876656082886807</v>
+        <v>-0.9167629257650453</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.057283014887432</v>
+        <v>-2.029513382539884</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4207344099739529</v>
+        <v>-0.4277828675991375</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.007393049268993192</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8395399736549122</v>
+        <v>-0.866552502805114</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.090769484683543</v>
+        <v>-2.065004365686972</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4163964132756483</v>
+        <v>-0.4254202648980651</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.02372908495013195</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7786836723680637</v>
+        <v>-0.8065343667003581</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.119382004270547</v>
+        <v>-2.092242766581081</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4242303064423618</v>
+        <v>-0.4327992665387227</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04023167961477272</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6920166055301266</v>
+        <v>-0.7185419757622857</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.141800758615233</v>
+        <v>-2.118663464541673</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4189116958314868</v>
+        <v>-0.426278105319174</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05754291491883484</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5901870124966998</v>
+        <v>-0.6197817200153953</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.129470679828524</v>
+        <v>-2.109154028020336</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4082917888200711</v>
+        <v>-0.4140873272247002</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.07459720605225631</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4806998164381453</v>
+        <v>-0.509405203153306</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.126727951509658</v>
+        <v>-2.109601049450785</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4003508623531091</v>
+        <v>-0.4061180684135548</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.09156177060531352</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3241982432454605</v>
+        <v>-0.3525022550846895</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.105629799207743</v>
+        <v>-2.090350795597277</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3764619741491285</v>
+        <v>-0.3816892916509681</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1071734532546683</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1799252246061608</v>
+        <v>-0.2101086152762227</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.072429013882148</v>
+        <v>-2.05719644383576</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3556298310787139</v>
+        <v>-0.3614426836936774</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1211905136413875</v>
       </c>
       <c r="E81" t="n">
-        <v>0.01666818962517386</v>
+        <v>-0.01178220599233607</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.043548124034962</v>
+        <v>-2.026151277696786</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.32627909652382</v>
+        <v>-0.3333464423784601</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1325195235562342</v>
       </c>
       <c r="E82" t="n">
-        <v>0.183954941837011</v>
+        <v>0.1575240127521298</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.001484037037323</v>
+        <v>-1.983563829341314</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2980034170287744</v>
+        <v>-0.3086044358107346</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1399710077082516</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3957502327418676</v>
+        <v>0.3669582749750354</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.939191443302287</v>
+        <v>-1.923175798743053</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2641494137678392</v>
+        <v>-0.2724791229577625</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1431989081344107</v>
       </c>
       <c r="E84" t="n">
-        <v>0.59332111284753</v>
+        <v>0.5703420076956612</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.85202777343158</v>
+        <v>-1.838601390326885</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2284475120584971</v>
+        <v>-0.2390689930890341</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1416539680689692</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7699732788311061</v>
+        <v>0.7497487071415135</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.735120651235214</v>
+        <v>-1.722170408914712</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1977793234990745</v>
+        <v>-0.2106878543128614</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1363044593208261</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9892703448680819</v>
+        <v>0.966861034638124</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.636892413951323</v>
+        <v>-1.62726807403413</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1642794745404319</v>
+        <v>-0.1770494916715444</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1284233486905655</v>
       </c>
       <c r="E87" t="n">
-        <v>1.19268083591377</v>
+        <v>1.173625760431304</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.505845877988313</v>
+        <v>-1.500709066585948</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1322639256131759</v>
+        <v>-0.1423502401424707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1207847822104228</v>
       </c>
       <c r="E88" t="n">
-        <v>1.353100142699372</v>
+        <v>1.337992707173128</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.356585579763172</v>
+        <v>-1.34882645250472</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1016917522201527</v>
+        <v>-0.1134229167312067</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1164883097291935</v>
       </c>
       <c r="E89" t="n">
-        <v>1.481544825054872</v>
+        <v>1.468482040367198</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.176303725685876</v>
+        <v>-1.168014153983546</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.07425345089763907</v>
+        <v>-0.08589489631877896</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1180073986260368</v>
       </c>
       <c r="E90" t="n">
-        <v>1.594268204426821</v>
+        <v>1.582296214990208</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9886090285568151</v>
+        <v>-0.981285117585403</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05337880931094935</v>
+        <v>-0.06329355575602238</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1277346683774866</v>
       </c>
       <c r="E91" t="n">
-        <v>1.67773056833379</v>
+        <v>1.662597948501605</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.789421630813577</v>
+        <v>-0.7838999717360542</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.05546595866579406</v>
+        <v>-0.06591114955474542</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1473599104878633</v>
       </c>
       <c r="E92" t="n">
-        <v>1.726062399472449</v>
+        <v>1.716607266610795</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5756336317011537</v>
+        <v>-0.5743271958304741</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05092963555820548</v>
+        <v>-0.06064290755575202</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1772101291966042</v>
       </c>
       <c r="E93" t="n">
-        <v>1.727257079985516</v>
+        <v>1.721082202972653</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4001399437908548</v>
+        <v>-0.4001871643644938</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05995348718062232</v>
+        <v>-0.06775432594578853</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2141607007940836</v>
       </c>
       <c r="E94" t="n">
-        <v>1.711798638195222</v>
+        <v>1.706555580502169</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2135147926547174</v>
+        <v>-0.2142750438903057</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.0862222922960095</v>
+        <v>-0.09099629229091449</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2542350647922872</v>
       </c>
       <c r="E95" t="n">
-        <v>1.677110404799997</v>
+        <v>1.672833794847423</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07700168828343007</v>
+        <v>-0.07585895040136577</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08970244857320532</v>
+        <v>-0.09534688114218959</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2932108419163019</v>
       </c>
       <c r="E96" t="n">
-        <v>1.605234395644923</v>
+        <v>1.605616882291399</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04145899078565969</v>
+        <v>0.03785133895963851</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1088519652029495</v>
+        <v>-0.1117088099081102</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3257789685704109</v>
       </c>
       <c r="E97" t="n">
-        <v>1.500974517088208</v>
+        <v>1.506079061098586</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1054224058179557</v>
+        <v>0.1013708805997278</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1342534857825</v>
+        <v>-0.1355756618443926</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3468656480073234</v>
       </c>
       <c r="E98" t="n">
-        <v>1.377310130804098</v>
+        <v>1.378611844617413</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1514168185614831</v>
+        <v>0.1484041459633136</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1422857053584974</v>
+        <v>-0.1438109298870378</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3544949104177492</v>
       </c>
       <c r="E99" t="n">
-        <v>1.24935182035708</v>
+        <v>1.25075584541328</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1684335392818649</v>
+        <v>0.1630047473324988</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1587279090996044</v>
+        <v>-0.1595936196163198</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3479983000576329</v>
       </c>
       <c r="E100" t="n">
-        <v>1.123247704434954</v>
+        <v>1.123690003808039</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1911308950110208</v>
+        <v>0.1835818993052627</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1659337686369189</v>
+        <v>-0.1667805909241787</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3326801975447372</v>
       </c>
       <c r="E101" t="n">
-        <v>1.00673093898067</v>
+        <v>1.009424085697216</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2006584327522539</v>
+        <v>0.194047552442791</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1892213815365626</v>
+        <v>-0.1902759743478341</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.308769572202833</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8930914804801247</v>
+        <v>0.8947174422324282</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2050530941389254</v>
+        <v>0.1949053928638999</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1976077554148527</v>
+        <v>-0.1960242921788242</v>
       </c>
     </row>
   </sheetData>
